--- a/inst/extdata/CovidOISExPONTENT_CO_layout.xlsx
+++ b/inst/extdata/CovidOISExPONTENT_CO_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spelleau\OneDrive - Institut Pasteur Paris\Documents\a_Lab\z_R scripts\MFI_RAU_Gaelle_June2023\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymot\Documents\mi2lab\PvSTATEM\SerolyzeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88783A3D-C25C-4601-8897-3D350B706108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36202FF-F049-442A-9900-4293F0235B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F9FBBE92-800C-4B3E-9D46-675E077C12B1}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{F9FBBE92-800C-4B3E-9D46-675E077C12B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,15 +749,15 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.95">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.95">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.95">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,7 +878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.95">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.95">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -960,7 +960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.95">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.95">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.95">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.95">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
